--- a/excel/exported/warehouses.xlsx
+++ b/excel/exported/warehouses.xlsx
@@ -13,60 +13,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+  <si>
+    <t>1B1</t>
+  </si>
+  <si>
+    <t>SJA 1 - B1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:47:54.0000000</t>
+  </si>
+  <si>
+    <t>1B2</t>
+  </si>
+  <si>
+    <t>SJA 1 - B2</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:48:08.0000000</t>
+  </si>
   <si>
     <t>1F1</t>
   </si>
   <si>
-    <t>SJA 1 F1</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:25:04.0000000</t>
+    <t>SJA 1 - F1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:48:36.0000000</t>
   </si>
   <si>
     <t>1F2</t>
   </si>
   <si>
-    <t>SJA 1 F2</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:25:15.0000000</t>
-  </si>
-  <si>
-    <t>1B1</t>
-  </si>
-  <si>
-    <t>SJA 1 B1</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:25:55.0000000</t>
-  </si>
-  <si>
-    <t>1B2</t>
-  </si>
-  <si>
-    <t>SJA 1 B2</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:26:10.0000000</t>
-  </si>
-  <si>
-    <t>3B1</t>
-  </si>
-  <si>
-    <t>SJA 2 B1</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:27:06.0000000</t>
-  </si>
-  <si>
-    <t>3F1</t>
-  </si>
-  <si>
-    <t>SJA 2 F1</t>
-  </si>
-  <si>
-    <t>2020-10-08 15:37:12.0000000</t>
+    <t>SJA 1 - F2</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:48:44.0000000</t>
+  </si>
+  <si>
+    <t>1F3</t>
+  </si>
+  <si>
+    <t>SJA 1 - F3</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:48:51.0000000</t>
+  </si>
+  <si>
+    <t>2B1</t>
+  </si>
+  <si>
+    <t>SJA 2 - B1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:49:09.0000000</t>
+  </si>
+  <si>
+    <t>2F1</t>
+  </si>
+  <si>
+    <t>SJA 2 - F1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:49:21.0000000</t>
+  </si>
+  <si>
+    <t>6B1</t>
+  </si>
+  <si>
+    <t>SJA SMG - B1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:49:37.0000000</t>
+  </si>
+  <si>
+    <t>6B2</t>
+  </si>
+  <si>
+    <t>SJA SMG - B2</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:50:42.0000000</t>
+  </si>
+  <si>
+    <t>6F1</t>
+  </si>
+  <si>
+    <t>SJA SMG - F1</t>
+  </si>
+  <si>
+    <t>2021-03-27 11:51:07.0000000</t>
+  </si>
+  <si>
+    <t>4B1</t>
+  </si>
+  <si>
+    <t>SJA3-1</t>
+  </si>
+  <si>
+    <t>2021-03-30 15:31:25.0000000</t>
+  </si>
+  <si>
+    <t>4F1</t>
+  </si>
+  <si>
+    <t>UPBM SJA3</t>
+  </si>
+  <si>
+    <t>2021-03-30 15:31:53.0000000</t>
   </si>
 </sst>
 </file>
@@ -110,12 +164,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -132,7 +186,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -149,7 +203,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -166,7 +220,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -183,7 +237,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -200,7 +254,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -213,6 +267,108 @@
       </c>
       <c r="F6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
